--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -504,7 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -538,7 +540,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -588,7 +590,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>672.93</v>
+        <v>672.36</v>
       </c>
       <c r="B3" s="5">
         <v>101.92</v>
@@ -600,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>571.01</v>
+        <v>570.44000000000005</v>
       </c>
       <c r="F3" s="5">
         <v>88.44</v>
@@ -655,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -712,13 +714,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="7">
         <v>42005</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="4">
         <v>10000</v>
@@ -735,8 +735,6 @@
         <v>0</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
@@ -882,13 +880,13 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>812.03</v>
+        <v>812.55</v>
       </c>
       <c r="G6" s="6">
-        <v>6809.08</v>
+        <v>6808.56</v>
       </c>
       <c r="H6" s="5">
-        <v>75.69</v>
+        <v>75.17</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -925,13 +923,13 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>818.32</v>
+        <v>818.33</v>
       </c>
       <c r="G7" s="6">
-        <v>5990.76</v>
+        <v>5990.23</v>
       </c>
       <c r="H7" s="5">
-        <v>69.400000000000006</v>
+        <v>69.39</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -968,13 +966,13 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>828.63</v>
+        <v>828.64</v>
       </c>
       <c r="G8" s="6">
-        <v>5162.13</v>
+        <v>5161.59</v>
       </c>
       <c r="H8" s="5">
-        <v>59.09</v>
+        <v>59.08</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1014,7 +1012,7 @@
         <v>835.11</v>
       </c>
       <c r="G9" s="6">
-        <v>4327.0200000000004</v>
+        <v>4326.4799999999996</v>
       </c>
       <c r="H9" s="5">
         <v>52.61</v>
@@ -1054,13 +1052,13 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>843.62</v>
+        <v>843.63</v>
       </c>
       <c r="G10" s="6">
-        <v>3483.4</v>
+        <v>3482.85</v>
       </c>
       <c r="H10" s="5">
-        <v>44.1</v>
+        <v>44.09</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1097,13 +1095,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>853.36</v>
+        <v>853.37</v>
       </c>
       <c r="G11" s="6">
-        <v>2630.04</v>
+        <v>2629.48</v>
       </c>
       <c r="H11" s="5">
-        <v>34.36</v>
+        <v>34.35</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1143,7 +1141,7 @@
         <v>860.92</v>
       </c>
       <c r="G12" s="6">
-        <v>1769.12</v>
+        <v>1768.56</v>
       </c>
       <c r="H12" s="5">
         <v>26.8</v>
@@ -1183,13 +1181,13 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>870.27</v>
+        <v>870.28</v>
       </c>
       <c r="G13" s="5">
-        <v>898.85</v>
+        <v>898.28</v>
       </c>
       <c r="H13" s="5">
-        <v>17.45</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1226,7 +1224,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>898.85</v>
+        <v>898.28</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -1241,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>908.01</v>
+        <v>907.44</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
@@ -1253,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <v>908.01</v>
+        <v>907.44</v>
       </c>
     </row>
   </sheetData>
@@ -1266,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -127,7 +127,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +152,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -171,12 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -511,9 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -544,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,7 +548,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -577,86 +568,83 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>10000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>785.8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>9214.2000000000007</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>799.28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>672.36</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>672.93</v>
+      </c>
+      <c r="B3" s="5">
         <v>101.92</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>570.44000000000005</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>571.01</v>
+      </c>
+      <c r="F3" s="5">
         <v>88.44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="4"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -667,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,544 +712,548 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
-      <c r="C2" s="8">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4">
         <v>10000</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>42050</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6">
+      <c r="E3" s="8"/>
+      <c r="F3" s="5">
         <v>785.8</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>101.92</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="P3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42064</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>799.28</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>8414.92</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>88.44</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>42095</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <v>793.81</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>7621.11</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>93.91</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>42125</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>812.55</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6808.56</v>
-      </c>
-      <c r="H6" s="6">
-        <v>75.17</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>812.03</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6809.08</v>
+      </c>
+      <c r="H6" s="5">
+        <v>75.69</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>42156</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>818.33</v>
-      </c>
-      <c r="G7" s="7">
-        <v>5990.23</v>
-      </c>
-      <c r="H7" s="6">
-        <v>69.39</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>818.32</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5990.76</v>
+      </c>
+      <c r="H7" s="5">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>42186</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>828.64</v>
-      </c>
-      <c r="G8" s="7">
-        <v>5161.59</v>
-      </c>
-      <c r="H8" s="6">
-        <v>59.08</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>828.63</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5162.13</v>
+      </c>
+      <c r="H8" s="5">
+        <v>59.09</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>42217</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>835.11</v>
       </c>
-      <c r="G9" s="7">
-        <v>4326.4799999999996</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="6">
+        <v>4327.0200000000004</v>
+      </c>
+      <c r="H9" s="5">
         <v>52.61</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>42248</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>843.63</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3482.85</v>
-      </c>
-      <c r="H10" s="6">
-        <v>44.09</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>843.62</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3483.4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>44.1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>42278</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
-        <v>853.37</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2629.48</v>
-      </c>
-      <c r="H11" s="6">
-        <v>34.35</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>853.36</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2630.04</v>
+      </c>
+      <c r="H11" s="5">
+        <v>34.36</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>42309</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>860.92</v>
       </c>
-      <c r="G12" s="7">
-        <v>1768.56</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="6">
+        <v>1769.12</v>
+      </c>
+      <c r="H12" s="5">
         <v>26.8</v>
       </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>42339</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
-        <v>870.28</v>
-      </c>
-      <c r="G13" s="6">
-        <v>898.28</v>
-      </c>
-      <c r="H13" s="6">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>870.27</v>
+      </c>
+      <c r="G13" s="5">
+        <v>898.85</v>
+      </c>
+      <c r="H13" s="5">
+        <v>17.45</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
         <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>31</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>42370</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <v>898.28</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>898.85</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>9.16</v>
       </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>907.44</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>907.44</v>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>908.01</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>908.01</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1267,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1287,98 +1279,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>2622</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>42050</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="10">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="10">
         <v>785.8</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>101.92</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
         <v>9214.2000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2621</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>42005</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>10000</v>
       </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -211,6 +216,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -258,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +299,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,10 +697,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -667,7 +709,7 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,15 +747,16 @@
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="7">
         <v>42005</v>
@@ -735,8 +778,9 @@
         <v>0</v>
       </c>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -774,14 +818,15 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
-        <v>887.72</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
+        <v>887.72</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -817,14 +862,15 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -860,14 +906,15 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -903,14 +950,15 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -946,14 +994,15 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -989,14 +1038,15 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1032,14 +1082,15 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1075,14 +1126,15 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1118,14 +1170,15 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1161,14 +1214,15 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1204,14 +1258,15 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1247,10 +1302,11 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>907.44</v>
       </c>
     </row>
@@ -1264,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/966-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -120,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -266,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,26 +294,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,23 +329,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -699,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
